--- a/test001.xlsx
+++ b/test001.xlsx
@@ -16,13 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -384,6 +392,17 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test001.xlsx
+++ b/test001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>stu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -414,12 +426,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
